--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#CK.xlsx
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -516,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -524,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -540,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -556,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -564,7 +564,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -580,7 +580,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -588,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -636,7 +636,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -644,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -660,7 +660,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -668,7 +668,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -676,7 +676,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -684,7 +684,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -692,7 +692,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -700,7 +700,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -716,7 +716,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -732,7 +732,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -740,7 +740,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -748,7 +748,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -772,7 +772,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -788,7 +788,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -796,7 +796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -804,7 +804,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -812,7 +812,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -820,7 +820,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -828,7 +828,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -836,7 +836,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -844,7 +844,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -852,7 +852,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -868,7 +868,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -876,7 +876,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -892,7 +892,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -900,7 +900,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -916,7 +916,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -940,7 +940,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -948,7 +948,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -956,7 +956,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -964,7 +964,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -972,7 +972,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -980,7 +980,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -996,7 +996,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
